--- a/doc/SCRUM/Burndown Chart.xlsx
+++ b/doc/SCRUM/Burndown Chart.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locky\OneDrive\Documents\GitHub\IFB299\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/locky/git/IFB299/doc/SCRUM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="465" windowWidth="16800" windowHeight="16305" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="27560" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -187,11 +187,17 @@
   <si>
     <t>Time taken (hrs)</t>
   </si>
+  <si>
+    <t>COMMENTS:
+- Hours taking slighly more than anticipated from sprint plan per task - needs to be factored into workload
+- Week one week 1 tutorial public holiday left team behind - need to catch up on missed time
+- Streamline similar tasks at once instead of one by one to speed progress up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +357,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -398,6 +407,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -501,70 +511,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2ACB-4BBB-BBDA-4E7967DD6B78}"/>
             </c:ext>
@@ -668,67 +678,67 @@
                   <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.599999999999994</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.399999999999991</c:v>
+                  <c:v>37.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.199999999999989</c:v>
+                  <c:v>35.19999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.999999999999986</c:v>
+                  <c:v>32.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.799999999999986</c:v>
+                  <c:v>30.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.599999999999987</c:v>
+                  <c:v>28.59999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.399999999999988</c:v>
+                  <c:v>26.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.199999999999989</c:v>
+                  <c:v>24.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.999999999999989</c:v>
+                  <c:v>21.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.599999999999991</c:v>
+                  <c:v>17.59999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.399999999999991</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.199999999999992</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.999999999999993</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7999999999999936</c:v>
+                  <c:v>8.799999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999934</c:v>
+                  <c:v>6.599999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3999999999999932</c:v>
+                  <c:v>4.399999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1999999999999931</c:v>
+                  <c:v>2.199999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2ACB-4BBB-BBDA-4E7967DD6B78}"/>
             </c:ext>
@@ -743,11 +753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="970792912"/>
-        <c:axId val="970795232"/>
+        <c:axId val="-1222530384"/>
+        <c:axId val="-1222528336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="970792912"/>
+        <c:axId val="-1222530384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970795232"/>
+        <c:crossAx val="-1222528336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970795232"/>
+        <c:axId val="-1222528336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970792912"/>
+        <c:crossAx val="-1222530384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -787,7 +797,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -813,7 +823,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,22 +1168,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="13.125" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1201,7 +1211,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
@@ -1231,7 +1241,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1259,7 +1269,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1287,7 +1297,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1319,7 +1329,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:39" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -1364,7 +1374,7 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="11"/>
@@ -1405,7 +1415,7 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
@@ -1446,7 +1456,7 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="11"/>
@@ -1487,7 +1497,7 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
     </row>
-    <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1532,7 +1542,7 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
     </row>
-    <row r="11" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1577,7 +1587,7 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
     </row>
-    <row r="12" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
@@ -1620,7 +1630,7 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -1661,7 +1671,7 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -1702,7 +1712,7 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -1743,7 +1753,7 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -1784,7 +1794,7 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1825,7 +1835,7 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1925,7 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
     </row>
-    <row r="19" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
@@ -2005,7 +2015,7 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
     </row>
-    <row r="20" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
@@ -2095,7 +2105,7 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
     </row>
-    <row r="21" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +2195,7 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
     </row>
-    <row r="22" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
@@ -2275,7 +2285,7 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
     </row>
-    <row r="23" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
@@ -2365,7 +2375,7 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
     </row>
-    <row r="24" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2465,7 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
     </row>
-    <row r="25" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
@@ -2537,7 +2547,7 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
     </row>
-    <row r="26" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
@@ -2619,7 +2629,7 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
     </row>
-    <row r="27" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
@@ -2696,7 +2706,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
@@ -2773,7 +2783,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>43</v>
       </c>
@@ -2850,7 +2860,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>44</v>
       </c>
@@ -2927,7 +2937,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>45</v>
       </c>
@@ -3004,7 +3014,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>46</v>
       </c>
@@ -3081,7 +3091,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>47</v>
       </c>
@@ -3158,7 +3168,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>48</v>
       </c>
@@ -3235,7 +3245,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>51</v>
       </c>
@@ -3312,7 +3322,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>49</v>
       </c>
@@ -3389,7 +3399,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>39.599999999999994</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:W37" si="0">E37 - 44/20</f>
+        <f t="shared" ref="F37:V37" si="0">E37 - 44/20</f>
         <v>37.399999999999991</v>
       </c>
       <c r="G37" s="8">
@@ -3482,7 +3492,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
@@ -3576,7 +3586,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -3604,7 +3614,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -3632,8 +3642,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+    <row r="41" spans="1:27" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3660,7 +3672,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -3688,7 +3700,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -3716,7 +3728,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -3744,7 +3756,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -3772,7 +3784,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -3800,7 +3812,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -3828,7 +3840,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -3856,7 +3868,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
@@ -3884,7 +3896,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
@@ -3912,7 +3924,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
@@ -3940,7 +3952,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
@@ -3968,7 +3980,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
@@ -3996,7 +4008,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
@@ -4024,7 +4036,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
@@ -4052,7 +4064,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
@@ -4080,7 +4092,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
@@ -4108,7 +4120,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -4136,7 +4148,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -4164,7 +4176,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -4192,7 +4204,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -4220,7 +4232,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -4248,7 +4260,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -4276,7 +4288,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -4304,7 +4316,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -4332,7 +4344,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -4360,7 +4372,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -4388,7 +4400,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
@@ -4416,7 +4428,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
@@ -4444,7 +4456,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
@@ -4472,7 +4484,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
@@ -4500,7 +4512,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -4528,7 +4540,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
@@ -4556,7 +4568,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
@@ -4584,7 +4596,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
@@ -4612,7 +4624,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
@@ -4640,7 +4652,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
@@ -4668,7 +4680,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
@@ -4696,7 +4708,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
@@ -4724,7 +4736,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
@@ -4752,7 +4764,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
@@ -4780,7 +4792,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
@@ -4808,7 +4820,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
@@ -4836,7 +4848,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
@@ -4864,7 +4876,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
@@ -4892,7 +4904,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
@@ -4920,7 +4932,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
@@ -4948,7 +4960,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
@@ -4976,7 +4988,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
@@ -5004,7 +5016,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
@@ -5031,7 +5043,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
@@ -5058,7 +5070,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
@@ -5085,7 +5097,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
@@ -5112,7 +5124,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
@@ -5139,7 +5151,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
@@ -5166,7 +5178,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
@@ -5193,7 +5205,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -5218,7 +5230,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -5243,7 +5255,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -5268,7 +5280,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -5293,7 +5305,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -5318,7 +5330,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -5343,7 +5355,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -5368,7 +5380,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -5393,7 +5405,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -5418,7 +5430,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -5443,7 +5455,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -5468,7 +5480,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -5493,7 +5505,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -5518,7 +5530,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -5543,7 +5555,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -5568,7 +5580,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -5593,7 +5605,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
@@ -5618,7 +5630,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
@@ -5643,7 +5655,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
@@ -5668,7 +5680,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
@@ -5693,7 +5705,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
@@ -5718,7 +5730,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
@@ -5730,7 +5742,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
@@ -5742,7 +5754,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
@@ -5754,7 +5766,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
@@ -5766,7 +5778,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
@@ -5778,7 +5790,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
@@ -5790,7 +5802,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
@@ -5802,7 +5814,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
@@ -5814,7 +5826,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
@@ -5826,7 +5838,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
@@ -5838,7 +5850,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="3"/>
@@ -5850,7 +5862,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="3"/>
@@ -5862,7 +5874,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="3"/>
@@ -5874,7 +5886,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="3"/>
@@ -5886,7 +5898,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="3"/>
@@ -5898,7 +5910,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="3"/>
@@ -5910,7 +5922,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="3"/>
@@ -5922,7 +5934,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -5934,7 +5946,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="3"/>
